--- a/4.Planing/VESKL_Planning.xlsx
+++ b/4.Planing/VESKL_Planning.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PM-HungLQ11\Documents\GitHub\VESKL\4.Planing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A0B2BF-1D4F-4230-8375-6FF98C53F9FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2CBB8-7A33-4A0E-814B-274C7752031E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="19200" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="19200" windowHeight="8370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SUM" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Leak_Knowledge" sheetId="7" r:id="rId3"/>
+    <sheet name="PLAN" sheetId="8" r:id="rId1"/>
+    <sheet name="Universities" sheetId="10" r:id="rId2"/>
+    <sheet name="Filter" sheetId="9" r:id="rId3"/>
+    <sheet name="Leak_Knowledge" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="173">
   <si>
     <t>Index</t>
   </si>
@@ -210,9 +210,6 @@
     <t>University</t>
   </si>
   <si>
-    <t>Master Program Name</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
@@ -225,13 +222,7 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Arizona State University</t>
-  </si>
-  <si>
-    <t>USA</t>
   </si>
   <si>
     <t>Question</t>
@@ -256,17 +247,10 @@
     <t>MS  Computer Science (Big Data Systems)</t>
   </si>
   <si>
-    <t>Tempe</t>
-  </si>
-  <si>
     <t>STEM OPT abbr</t>
   </si>
   <si>
     <t>- Mean Science – Technology – Engineering – Mathematics Optional Practical Training</t>
-  </si>
-  <si>
-    <t>- A thesis and nonthesis project portfolio option
-- STEM-OPT for F-1 visa up to 3-y</t>
   </si>
   <si>
     <t>F1 Visa</t>
@@ -276,84 +260,383 @@
 - Intership after graduated 12-m</t>
   </si>
   <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>- Tuition: 37044 USD
-- Full: 38943 USD</t>
-  </si>
-  <si>
-    <t>Application Dealine</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Computer Science and Engineering Program | CTRPT 105
-SCAI.Grad.Admission@asu.edu
+    <t>MCS  Computer Science (Big Data Systems)</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Sub-Task</t>
+  </si>
+  <si>
+    <t>Desciption</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>I. PREPARATION</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Master achievement in computer science (advance/big data)</t>
+  </si>
+  <si>
+    <t>2024-2026</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Try TOEIC 4 skill mock test</t>
+  </si>
+  <si>
+    <t>Edusa Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sep 2023</t>
+  </si>
+  <si>
+    <t>L425; R450; S130; W120</t>
+  </si>
+  <si>
+    <t>Try IELTS academic mock test</t>
+  </si>
+  <si>
+    <t>British Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 2023</t>
+  </si>
+  <si>
+    <t>Over6.4 (L6.5; R7.0;S5.5; W6.0)</t>
+  </si>
+  <si>
+    <t>Register IELTS premium course</t>
+  </si>
+  <si>
+    <t>Jan-March 2024</t>
+  </si>
+  <si>
+    <t>Certificate for IELTS 7.5</t>
+  </si>
+  <si>
+    <t>Apirl-June 2024</t>
+  </si>
+  <si>
+    <t>Balance with work?</t>
+  </si>
+  <si>
+    <t>Scholarship</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>All documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 2023</t>
+  </si>
+  <si>
+    <t>DXExcellence outside</t>
+  </si>
+  <si>
+    <t>From university</t>
+  </si>
+  <si>
+    <t>Ask programe CS and Admission</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>AITC</t>
+  </si>
+  <si>
+    <t>Manchester/Singapore/Australia/…</t>
+  </si>
+  <si>
+    <t>On going</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>IELTS and university</t>
+  </si>
+  <si>
+    <t>Ms. Le</t>
+  </si>
+  <si>
+    <t>IMAP</t>
+  </si>
+  <si>
+    <t>University in Korea</t>
+  </si>
+  <si>
+    <t>Ms. Ha</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Mr. Tuyen (Ass Pro in Florida State University)</t>
+  </si>
+  <si>
+    <t>Mr. Tan (International Education in Germany)</t>
+  </si>
+  <si>
+    <t>II. SELECTION and DOCUMENTS</t>
+  </si>
+  <si>
+    <t>University/Programe</t>
+  </si>
+  <si>
+    <t>Select min 3</t>
+  </si>
+  <si>
+    <t>Done before Jan 2024</t>
+  </si>
+  <si>
+    <t>Ask</t>
+  </si>
+  <si>
+    <t>Can change VES into online or learn in Vietnam</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Offical transcript</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>statement of purpose</t>
+  </si>
+  <si>
+    <t>VES cabinet</t>
+  </si>
+  <si>
+    <t>LoR</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>https://aitcv.ac.vn/en/ait-course/pmds-en/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ms. Trần Thu Hương:
+M: +84 989620424; Email: thuhuong@aitcv.ac.vn</t>
+  </si>
+  <si>
+    <t>- Next Spring: 15 Dec</t>
+  </si>
+  <si>
+    <t>1. Certificate and table of score (English translation and notarized);
+2. AIT application form
+3. IELTS 5.0 or equivalent or EET-AIT 5.0
+4. Resume
+5. Copy of Passport
+6. 01 ID Card photo size 3x4</t>
+  </si>
+  <si>
+    <t>30 credit hours and a portfolio</t>
+  </si>
+  <si>
+    <t>- Base: 14975USD</t>
+  </si>
+  <si>
+    <t>3-semester</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>Data Science and Artificial Intelligent (AI) Applications (PMDS)</t>
+  </si>
+  <si>
+    <t>VN/Asia</t>
+  </si>
+  <si>
+    <t>Asian Institute of Technology Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.manchester.ac.uk/study/masters/courses/list/02069/msc-advanced-computer-science/
+https://www.cs.manchester.ac.uk/
+</t>
+  </si>
+  <si>
+    <t>Postgraduate Admissions Team:
+Telephone
++44 (0)161 543 4018
+Email
+pgt-compsci@manchester.ac.uk</t>
+  </si>
+  <si>
+    <t>- Next Fall: 10 Nov</t>
+  </si>
+  <si>
+    <t>1. graduate admission application and application fee
+2. official transcripts with
+3. CV if graduated more than 3-y
+4. Degree certificate
+5. proof of English proficiency: IELTS academic 7.0</t>
+  </si>
+  <si>
+    <t>- Base: £14500~18500USD
+- Full: £36000~46000USD</t>
+  </si>
+  <si>
+    <t>2-semester</t>
+  </si>
+  <si>
+    <t>MSc Advanced Computer Science</t>
+  </si>
+  <si>
+    <t>- 65 in QS2023</t>
+  </si>
+  <si>
+    <t>UK/Europe</t>
+  </si>
+  <si>
+    <r>
+      <t>https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMCS/computer-science-big-data-systems-mcs
+https://scai.engineering.asu.edu/graduate-computer-science/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+STEM-OPT up to 3-y</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Can change to campus</t>
+    </r>
+  </si>
+  <si>
+    <t>SCAI.Grad.Admission@asu.edu
 480-965-3199</t>
   </si>
   <si>
-    <t>MCS  Computer Science (Big Data Systems)</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>4-sem</t>
-  </si>
-  <si>
-    <t>3-sem</t>
-  </si>
-  <si>
-    <t>- Fall 01 Aug
-- Next Spring: 01 Dec</t>
-  </si>
-  <si>
-    <t>- Fall 19 Sep
-- Next Spring: 02 Dec
-- Next Summer: 18 Apirl</t>
-  </si>
-  <si>
-    <t>Computer Science and Engineering Program | CTRPT 105
-On Campus: SCAI.Grad.Admission@asu.edu
-ASU Online: mcsonline@asu.edu
-480-965-3199</t>
-  </si>
-  <si>
-    <t>- Can convert into tempe</t>
-  </si>
-  <si>
-    <t>https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMS/computer-science-big-data-systems-ms
+    <t>- This Fall: 01 Dec
+- Next Spring: 01 Aug
+- Next Summer: 18 April</t>
+  </si>
+  <si>
+    <t>1. graduate admission application and application fee
+2. official transcripts
+3. official GRE (recommended)
+4. statement of purpose OR curriculum vitae
+5. proof of English proficiency: IELTS academic 7.0/Duolingo 115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Base: 12376 USD
+</t>
+  </si>
+  <si>
+    <r>
+      <t>https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMS/computer-science-big-data-systems-ms
 https://scai.engineering.asu.edu/graduate-computer-science/</t>
-  </si>
-  <si>
-    <t>https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMCS/computer-science-big-data-systems-mcs
-https://asuonline.asu.edu/online-degree-programs/graduate/master-big-data/</t>
-  </si>
-  <si>
-    <t>- graduate admission application and application fee
-- official transcripts
-- GRE scores (optional, but strongly recommended)
-- statement of purpose OR curriculum vitae
-- proof of English proficiency: IELTS academic min 7/Duolingo min 115</t>
-  </si>
-  <si>
-    <t>- graduate admission application and application fee
-- official transcripts
-- statement of purpose
-- GRE min 305 (146 Verb, 159Quan, 4 Ana)
-- proof of English proficiency: IELTS academic at least 7.0/Duolingo min 105</t>
-  </si>
-  <si>
-    <t>- Tuition: 12376 USD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+STEM-OPT up to 3-y</t>
+    </r>
+  </si>
+  <si>
+    <t>- This Fall: 01 Dec
+- Next Spring: 01 Aug</t>
+  </si>
+  <si>
+    <t>1. graduate admission application and application fee
+2. official transcripts
+3. official GRE test scores: 305
+4. statement of purpose
+5. proof of English proficiency: IELTS academic 7.0/Duolingo 105</t>
+  </si>
+  <si>
+    <t>30 credit hours and a portfolio, or
+30 credit hours and a thesis</t>
+  </si>
+  <si>
+    <t>- Base: 12376 USD
+- Full: 41588 USD</t>
+  </si>
+  <si>
+    <t>4-semester</t>
+  </si>
+  <si>
+    <t>- 151 in QS2023
+- 10 in US</t>
+  </si>
+  <si>
+    <t>WS of US/America</t>
+  </si>
+  <si>
+    <t>Application Deadline</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Tuition</t>
+  </si>
+  <si>
+    <t>Country/Continental</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,12 +656,6 @@
       <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -412,19 +689,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -490,33 +798,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -529,17 +877,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -855,222 +1282,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C9845C-C6DB-4384-8AFF-B1189318558C}">
-  <dimension ref="A3:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB14005-AE9E-4751-BF8E-14DE7674BD6B}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="11"/>
-    <col min="2" max="2" width="20.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="11"/>
-    <col min="8" max="8" width="22.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="41.5703125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="32.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="39.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="104.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="11"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="11">
-        <v>151</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="C15" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>94</v>
-      </c>
+      <c r="E15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="21"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1" display="https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMS/computer-science-big-data-systems-ms" xr:uid="{EEACA530-14B3-4F8A-9949-724F89437BA2}"/>
-    <hyperlink ref="M5" r:id="rId2" display="https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMCS/computer-science-big-data-systems-mcs" xr:uid="{93F35386-34D8-4CE2-A7A5-E620FF7EE3AF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E0B3BE-6E1C-446A-86BB-31F7800801F1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F17:F19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="43"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="8" width="137.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1087,12 +1786,12 @@
         <v>16</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1109,12 +1808,12 @@
         <v>20</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" ht="60">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1131,12 +1830,12 @@
         <v>24</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1153,12 +1852,12 @@
         <v>26</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" ht="31.5">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1175,12 +1874,12 @@
         <v>32</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1197,12 +1896,12 @@
         <v>35</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" ht="60">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1217,12 +1916,12 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:8" ht="75">
+      <c r="A10" s="39">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1237,12 +1936,12 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" ht="45">
+      <c r="A11" s="39">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1259,12 +1958,12 @@
         <v>46</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8" ht="60">
+      <c r="A12" s="39">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1281,12 +1980,12 @@
         <v>50</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:8" ht="60">
+      <c r="A13" s="39">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1303,12 +2002,12 @@
         <v>53</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8" ht="45">
+      <c r="A14" s="39">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1321,110 +2020,347 @@
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="42" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H9" r:id="rId3" location="activetab=diploma_omschrijving" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{4BB20962-D819-49AF-B91C-677A4E607798}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{5337C18B-8587-43F7-B89B-3381D80A6D7A}"/>
+    <hyperlink ref="H9" r:id="rId3" location="activetab=diploma_omschrijving" xr:uid="{DFCE1A60-20F6-4747-9119-585E46B2CD8B}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{3BFE4C3F-9C98-4A2E-8763-F9528F05AE98}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{02AD1201-4B3C-4662-8805-663DB64DD11C}"/>
+    <hyperlink ref="H13" r:id="rId6" xr:uid="{E8FB7153-949D-4F6E-B5D9-B558007A130C}"/>
+    <hyperlink ref="H14" r:id="rId7" xr:uid="{F0362796-2282-4989-B66A-D2972470D41C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D565B0A3-B9A0-4851-BC04-7580936888F1}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="135">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="150">
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="135">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="135">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" display="https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMS/computer-science-big-data-systems-ms" xr:uid="{D3B6D91E-5A34-6C44-80F7-22B4016806D5}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{14EB4AF4-5EFF-8948-BE4F-8EAA526B68EF}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{290EA801-61DC-4F47-812A-E847B47DC500}"/>
+    <hyperlink ref="M3" r:id="rId4" display="https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMS/computer-science-big-data-systems-ms" xr:uid="{AB18FB8E-8CBD-A441-8D17-E8E28DD74BE2}"/>
+    <hyperlink ref="M5" r:id="rId5" xr:uid="{F2380909-875A-9E43-814C-A5EE0B168F6C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A261E64E-FC28-4D50-9C1F-4C1248F2F87C}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4.Planing/VESKL_Planning.xlsx
+++ b/4.Planing/VESKL_Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PM-HungLQ11\Documents\GitHub\VESKL\4.Planing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Documents/GitHub/Python/VESKL/4.Planing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2CBB8-7A33-4A0E-814B-274C7752031E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52259A46-13B9-D94D-99B9-DCBF822073EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="19200" windowHeight="8370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="31620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLAN" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="174">
   <si>
     <t>Index</t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>Country/Continental</t>
+  </si>
+  <si>
+    <t>https://englishtest.duolingo.com/institutions</t>
   </si>
 </sst>
 </file>
@@ -853,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -880,15 +883,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -913,30 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,6 +937,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1289,14 +1298,14 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1320,26 +1329,26 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="45">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="32">
       <c r="A4" s="7"/>
       <c r="B4" s="9" t="s">
         <v>85</v>
@@ -1352,261 +1361,261 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="21"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="9"/>
       <c r="C25" s="7" t="s">
         <v>125</v>
@@ -1618,28 +1627,28 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="7"/>
       <c r="B28" s="9" t="s">
         <v>130</v>
@@ -1652,44 +1661,44 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1708,46 +1717,46 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="43"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="32"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="17" thickBot="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
-      <c r="A2" s="37">
+    <row r="2" spans="1:8" ht="31">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1764,12 +1773,12 @@
         <v>12</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="39">
+    <row r="3" spans="1:8" ht="31">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1786,12 +1795,12 @@
         <v>16</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="39">
+    <row r="4" spans="1:8" ht="31">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1808,12 +1817,12 @@
         <v>20</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60">
-      <c r="A5" s="39">
+    <row r="5" spans="1:8" ht="46">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1830,12 +1839,12 @@
         <v>24</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="39">
+    <row r="6" spans="1:8" ht="46">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1852,12 +1861,12 @@
         <v>26</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.5">
-      <c r="A7" s="39">
+    <row r="7" spans="1:8" ht="34">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1874,12 +1883,12 @@
         <v>32</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="39">
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1896,12 +1905,12 @@
         <v>35</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60">
-      <c r="A9" s="39">
+    <row r="9" spans="1:8" ht="46">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1916,12 +1925,12 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="75">
-      <c r="A10" s="39">
+    <row r="10" spans="1:8" ht="61">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1936,12 +1945,12 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45">
-      <c r="A11" s="39">
+    <row r="11" spans="1:8" ht="46">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1958,12 +1967,12 @@
         <v>46</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60">
-      <c r="A12" s="39">
+    <row r="12" spans="1:8" ht="61">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1980,12 +1989,12 @@
         <v>50</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60">
-      <c r="A13" s="39">
+    <row r="13" spans="1:8" ht="46">
+      <c r="A13" s="28">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2002,12 +2011,12 @@
         <v>53</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45">
-      <c r="A14" s="39">
+    <row r="14" spans="1:8" ht="48">
+      <c r="A14" s="28">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2024,7 +2033,7 @@
         <v>57</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="31" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2044,30 +2053,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D565B0A3-B9A0-4851-BC04-7580936888F1}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2104,21 +2113,21 @@
       <c r="L1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="135">
-      <c r="A2" s="32">
+    <row r="2" spans="1:13" ht="128">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="40" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -2145,15 +2154,15 @@
       <c r="L2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="150">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="25"/>
+    <row r="3" spans="1:13" ht="144">
+      <c r="A3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="7" t="s">
         <v>76</v>
       </c>
@@ -2178,12 +2187,12 @@
       <c r="L3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="135">
-      <c r="A4" s="24">
+    <row r="4" spans="1:13" ht="112">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2192,7 +2201,7 @@
       <c r="C4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>154</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -2211,18 +2220,18 @@
       <c r="J4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="20" t="s">
         <v>149</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="135">
-      <c r="A5" s="24">
+    <row r="5" spans="1:13" ht="128">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2241,7 +2250,7 @@
       <c r="G5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="20" t="s">
         <v>141</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -2250,22 +2259,40 @@
       <c r="J5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="20" t="s">
         <v>138</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="19" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:M7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" display="https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMS/computer-science-big-data-systems-ms" xr:uid="{D3B6D91E-5A34-6C44-80F7-22B4016806D5}"/>
@@ -2273,6 +2300,7 @@
     <hyperlink ref="L3" r:id="rId3" xr:uid="{290EA801-61DC-4F47-812A-E847B47DC500}"/>
     <hyperlink ref="M3" r:id="rId4" display="https://degrees.apps.asu.edu/masters-phd/major/ASU00/ESCSEBDMS/computer-science-big-data-systems-ms" xr:uid="{AB18FB8E-8CBD-A441-8D17-E8E28DD74BE2}"/>
     <hyperlink ref="M5" r:id="rId5" xr:uid="{F2380909-875A-9E43-814C-A5EE0B168F6C}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{B0AD416E-5E7F-424A-806C-F7BA440C1AE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2283,15 +2311,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A261E64E-FC28-4D50-9C1F-4C1248F2F87C}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2308,7 +2336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75">
+    <row r="2" spans="1:4" ht="80">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>67</v>
@@ -2318,7 +2346,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>71</v>
@@ -2328,7 +2356,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:4" ht="32">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>73</v>
